--- a/docs/PT2ov/PT2ov_31.07.24_output.xlsx
+++ b/docs/PT2ov/PT2ov_31.07.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,1529 +505,1815 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1730818199.356397</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1730818201.0754762</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1730818199.356397.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1730818201.0754762.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>289.47</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>288.21</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>1.260000000000048</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.44</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1730818201.6783228</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1730818201.9430697</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1730818201.6783228.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1730818201.9430697.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>288.85</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>289.04</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-0.1899999999999977</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1730818201.99984</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1730818207.3779502</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1730818201.99984.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1730818207.3779502.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>289.16</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>289.9</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-0.7399999999999523</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1730818210.0256891</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1730818214.324193</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBER1730818210.0256891.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBER1730818214.324193.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>289.09</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>288.4</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.6899999999999977</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1730818215.3273911</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1730818215.3273911.png</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
+          <t>./test_images/SBER1730818215.3273911.png</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>288.6</v>
       </c>
-      <c r="J7" t="n">
-        <v>288.6</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
+      <c r="L7" t="n">
+        <v>289.15</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-0.5499999999999545</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1730818230.5274873</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1730818231.6557932</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730818230.5274873.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730818231.6557932.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>133.49</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>134.19</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.6999999999999886</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.52</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1730818233.1580975</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1730818236.4039874</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730818233.1580975.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730818236.4039874.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>133.52</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>134.02</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.5</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.37</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1730818253.4757683</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1730818261.7139857</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730818253.4757683.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730818261.7139857.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>6773.5</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>6758</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>15.5</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1730818263.0031133</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1730818268.9089153</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730818263.0031133.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730818268.9089153.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>6770</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>6746.5</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>23.5</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1730818270.939517</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1730818270.939517.png</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1730818270.939517.png</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>6748</v>
       </c>
-      <c r="J12" t="n">
-        <v>6748</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
+      <c r="L12" t="n">
+        <v>6747.5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1730818309.4981017</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1730818318.1175559</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730818309.4981017.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730818318.1175559.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>1036.6</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>1043.6</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-7</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.6799999999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1730818336.3433487</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1730818353.216128</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/CNY1730818336.3433487.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/CNY1730818353.216128.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>11.972</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>11.864</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-0.1079999999999988</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0.8999999999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1730818353.2307677</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1730818353.2307677.png</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
+          <t>./test_images/CNY1730818353.2307677.png</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>11.864</v>
       </c>
-      <c r="J15" t="n">
-        <v>11.864</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
+      <c r="L15" t="n">
+        <v>11.859</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.005000000000000782</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1730818368.003612</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1730818370.0247724</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730818368.003612.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730818370.0247724.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>129.54</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>130.66</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>1.120000000000005</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.86</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1730818389.5361972</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1730818400.1443172</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730818389.5361972.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730818400.1443172.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>164.22</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>164.96</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-0.7400000000000091</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.45</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1730818417.946448</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1730818419.6320438</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730818417.946448.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730818419.6320438.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>51.07</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>50.96</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.1099999999999994</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1730818420.1312642</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1730818426.4253135</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730818420.1312642.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730818426.4253135.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>51.285</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>50.71</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.5749999999999957</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.12</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1730818428.9224207</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1730818430.2559373</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730818428.9224207.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730818430.2559373.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>50.77</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>50.72</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.05000000000000426</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1730818430.3232956</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1730818435.2010422</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730818430.3232956.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730818435.2010422.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>50.72</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>50.705</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.01500000000000057</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1730818438.3908768</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1730818447.744733</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730818438.3908768.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730818447.744733.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>1426</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>1421</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>-5</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.35</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1730818451.9782934</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1730818455.195321</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730818451.9782934.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730818455.195321.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>1414</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>1413.2</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.7999999999999545</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1730818466.61559</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1730818475.1037903</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730818466.61559.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730818475.1037903.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>61</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>61.17</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.1700000000000017</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1730818480.861131</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1730818483.4101558</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730818480.861131.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730818483.4101558.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>60.74</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>60.62</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.1200000000000045</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1730818483.8053339</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1730818483.8053339.png</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1730818483.8053339.png</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>60.66</v>
       </c>
-      <c r="J26" t="n">
-        <v>60.66</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
+      <c r="L26" t="n">
+        <v>60.94</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-0.2800000000000011</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.46</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1730818492.0349455</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1730818493.608943</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/SELG1730818492.0349455.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/SELG1730818493.608943.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>58.24</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>58.55</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.3099999999999952</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.53</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1730818493.7461596</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1730818493.882898</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/SELG1730818493.7461596.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/SELG1730818493.882898.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>58.42</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>58.44</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.01999999999999602</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1730818495.7795112</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1730818500.1064627</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/SELG1730818495.7795112.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/SELG1730818500.1064627.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>57.66</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>57.71</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.05000000000000426</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1730818503.8345263</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1730818506.9027452</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/SELG1730818503.8345263.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/SELG1730818506.9027452.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>58.03</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>58.28</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.25</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.43</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1730818511.647617</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1730818513.478713</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/SELG1730818511.647617.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/SELG1730818513.478713.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>57.86</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>57.88</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-0.02000000000000313</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1730818520.017048</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1730818525.908613</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730818520.017048.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730818525.908613.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>142.06</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>143.28</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>1.219999999999999</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.86</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1730818526.666843</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1730818526.8044643</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730818526.666843.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730818526.8044643.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>143.12</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>143.12</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2020,334 +2321,397 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1730818526.8610723</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1730818528.4716198</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730818526.8610723.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730818528.4716198.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>143.12</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>143.5</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.3799999999999955</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1730818532.05813</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1730818532.05813.png</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1730818532.05813.png</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>143.94</v>
       </c>
-      <c r="J35" t="n">
-        <v>143.94</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
+      <c r="L35" t="n">
+        <v>143.66</v>
+      </c>
+      <c r="M35" t="n">
+        <v>-0.2800000000000011</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1730818546.8972127</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1730818558.1448064</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/ABIO1730818546.8972127.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/ABIO1730818558.1448064.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>85.48</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>85.02</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>-0.460000000000008</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-0.54</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1730818585.59323</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1730818591.172943</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/BSPB1730818585.59323.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/BSPB1730818591.172943.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>376.03</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>375.91</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.1199999999999477</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1730818591.1895075</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1730818591.2472203</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/BSPB1730818591.1895075.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/BSPB1730818591.2472203.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>375.91</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>375.98</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.06999999999999318</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1730818591.3053114</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1730818593.794097</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/BSPB1730818591.3053114.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/BSPB1730818593.794097.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>375.91</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>376.58</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.6699999999999591</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1730818595.30438</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1730818595.4950242</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/FEES1730818595.30438.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/FEES1730818595.4950242.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>0.09772</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>0.09772</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2355,531 +2719,630 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1730818598.7663205</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1730818603.5672781</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/FEES1730818598.7663205.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/FEES1730818603.5672781.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>0.09822</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>0.09862000000000001</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.0004000000000000115</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.41</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1730818608.92692</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1730818610.4991868</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/FEES1730818608.92692.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/FEES1730818610.4991868.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>0.09956000000000001</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>0.09970000000000001</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.0001400000000000012</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1730818610.6509748</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1730818610.8765554</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/FEES1730818610.6509748.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/FEES1730818610.8765554.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>0.09968</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>0.09982000000000001</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.0001400000000000012</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1730818610.9341419</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1730818611.6062896</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/FEES1730818610.9341419.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/FEES1730818611.6062896.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>0.09968</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>0.09992000000000001</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.0002400000000000041</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1730818612.7203588</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1730818613.1039634</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/FEES1730818612.7203588.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/FEES1730818613.1039634.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>0.09994000000000001</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>0.1001</v>
       </c>
-      <c r="K45" t="n">
-        <v>0.0001599999999999935</v>
+      <c r="M45" t="n">
+        <v>0.0001599999999999796</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1730818613.2020946</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1730818613.3830884</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/FEES1730818613.2020946.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/FEES1730818613.3830884.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>0.09984000000000001</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>0.09992000000000001</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>7.999999999999674e-05</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1730818613.4404128</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1730818618.102515</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/FEES1730818613.4404128.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/FEES1730818618.102515.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>0.09984000000000001</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>0.09988000000000001</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>3.999999999999837e-05</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1730818624.8842218</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1730818638.8424692</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730818624.8842218.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730818638.8424692.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>34.77</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>34.58</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>-0.1900000000000048</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.5499999999999999</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1730818638.8580844</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1730818640.132034</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730818638.8580844.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730818640.132034.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>34.58</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>34.515</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.06499999999999773</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1730818640.9905472</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1730818641.2556112</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730818640.9905472.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730818641.2556112.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>34.545</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>34.57</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>-0.02499999999999858</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1730818641.313194</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>./test_images/RUAL1730818641.313194.png</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
+          <t>./test_images/RUAL1730818641.313194.png</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>34.575</v>
       </c>
-      <c r="J51" t="n">
-        <v>34.575</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0</v>
+      <c r="L51" t="n">
+        <v>34.69</v>
+      </c>
+      <c r="M51" t="n">
+        <v>-0.1149999999999949</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-0.33</v>
       </c>
     </row>
   </sheetData>
@@ -2893,7 +3356,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2917,6 +3380,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -2925,11 +3403,20 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.001200000000000007</v>
+        <v>0.001199999999999993</v>
       </c>
       <c r="C2" t="n">
         <v>8</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.0001499999999999991</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -2943,6 +3430,15 @@
       <c r="C3" t="n">
         <v>5</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.1219999999999985</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -2951,11 +3447,20 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.020000000000095</v>
+        <v>0.470000000000141</v>
       </c>
       <c r="C4" t="n">
         <v>5</v>
       </c>
+      <c r="D4" t="n">
+        <v>0.0940000000000282</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -2964,11 +3469,20 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1500000000000057</v>
+        <v>-0.2650000000000006</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
+      <c r="D5" t="n">
+        <v>-0.06625000000000014</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.76</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.19</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -2977,11 +3491,20 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.599999999999994</v>
+        <v>1.319999999999993</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
+      <c r="D6" t="n">
+        <v>0.3299999999999983</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -2995,6 +3518,15 @@
       <c r="C7" t="n">
         <v>4</v>
       </c>
+      <c r="D7" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -3003,11 +3535,20 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>39</v>
+        <v>39.5</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
+      <c r="D8" t="n">
+        <v>13.16666666666667</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -3021,6 +3562,15 @@
       <c r="C9" t="n">
         <v>3</v>
       </c>
+      <c r="D9" t="n">
+        <v>0.2866666666666333</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -3029,11 +3579,20 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2900000000000063</v>
+        <v>0.01000000000000512</v>
       </c>
       <c r="C10" t="n">
         <v>3</v>
       </c>
+      <c r="D10" t="n">
+        <v>0.003333333333335039</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -3047,6 +3606,15 @@
       <c r="C11" t="n">
         <v>2</v>
       </c>
+      <c r="D11" t="n">
+        <v>-2.100000000000023</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.15</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -3055,11 +3623,20 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.1079999999999988</v>
+        <v>-0.102999999999998</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
       </c>
+      <c r="D12" t="n">
+        <v>-0.05149999999999899</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.8599999999999999</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.43</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -3073,6 +3650,15 @@
       <c r="C13" t="n">
         <v>2</v>
       </c>
+      <c r="D13" t="n">
+        <v>0.5999999999999943</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -3086,6 +3672,15 @@
       <c r="C14" t="n">
         <v>1</v>
       </c>
+      <c r="D14" t="n">
+        <v>-0.460000000000008</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.54</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.54</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -3099,6 +3694,15 @@
       <c r="C15" t="n">
         <v>1</v>
       </c>
+      <c r="D15" t="n">
+        <v>-7</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.6799999999999999</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.68</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -3112,6 +3716,15 @@
       <c r="C16" t="n">
         <v>1</v>
       </c>
+      <c r="D16" t="n">
+        <v>-0.7400000000000091</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.45</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.45</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -3125,6 +3738,15 @@
       <c r="C17" t="n">
         <v>1</v>
       </c>
+      <c r="D17" t="n">
+        <v>1.120000000000005</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.86</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -3138,6 +3760,11 @@
       <c r="C18" t="n">
         <v>0</v>
       </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
